--- a/Salary_Data.xlsx
+++ b/Salary_Data.xlsx
@@ -2204,9 +2204,6 @@
       <c r="D14" t="s">
         <v>136</v>
       </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
       <c r="F14">
         <v>3</v>
       </c>
@@ -4096,9 +4093,6 @@
       <c r="D57" t="s">
         <v>136</v>
       </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
       <c r="F57">
         <v>1</v>
       </c>
@@ -12104,9 +12098,6 @@
       <c r="D239" t="s">
         <v>137</v>
       </c>
-      <c r="E239">
-        <v>8</v>
-      </c>
       <c r="F239">
         <v>3</v>
       </c>
@@ -16592,9 +16583,6 @@
       <c r="D341" t="s">
         <v>188</v>
       </c>
-      <c r="E341">
-        <v>8</v>
-      </c>
       <c r="F341">
         <v>2</v>
       </c>
@@ -21432,9 +21420,6 @@
       <c r="D451" t="s">
         <v>203</v>
       </c>
-      <c r="E451">
-        <v>8</v>
-      </c>
       <c r="F451">
         <v>17</v>
       </c>
@@ -21608,9 +21593,6 @@
       <c r="D455" t="s">
         <v>136</v>
       </c>
-      <c r="E455">
-        <v>8</v>
-      </c>
       <c r="F455">
         <v>10</v>
       </c>
@@ -22224,9 +22206,6 @@
       <c r="D469" t="s">
         <v>142</v>
       </c>
-      <c r="E469">
-        <v>8</v>
-      </c>
       <c r="F469">
         <v>1</v>
       </c>
@@ -22444,9 +22423,6 @@
       <c r="D474" t="s">
         <v>136</v>
       </c>
-      <c r="E474">
-        <v>8</v>
-      </c>
       <c r="F474">
         <v>3</v>
       </c>
@@ -23016,9 +22992,6 @@
       <c r="D487" t="s">
         <v>136</v>
       </c>
-      <c r="E487">
-        <v>8</v>
-      </c>
       <c r="F487">
         <v>3</v>
       </c>
@@ -24952,9 +24925,6 @@
       <c r="D531" t="s">
         <v>138</v>
       </c>
-      <c r="E531">
-        <v>8</v>
-      </c>
       <c r="F531">
         <v>6</v>
       </c>
@@ -32520,9 +32490,6 @@
       <c r="D703" t="s">
         <v>137</v>
       </c>
-      <c r="E703">
-        <v>8</v>
-      </c>
       <c r="F703">
         <v>3</v>
       </c>
@@ -37008,9 +36975,6 @@
       <c r="D805" t="s">
         <v>147</v>
       </c>
-      <c r="E805">
-        <v>8</v>
-      </c>
       <c r="F805">
         <v>11</v>
       </c>
@@ -38284,9 +38248,6 @@
       <c r="D834" t="s">
         <v>239</v>
       </c>
-      <c r="E834">
-        <v>8</v>
-      </c>
       <c r="F834">
         <v>3</v>
       </c>
@@ -39208,9 +39169,6 @@
       <c r="D855" t="s">
         <v>202</v>
       </c>
-      <c r="E855">
-        <v>8</v>
-      </c>
       <c r="F855">
         <v>13</v>
       </c>
@@ -40044,9 +40002,6 @@
       <c r="D874" t="s">
         <v>148</v>
       </c>
-      <c r="E874">
-        <v>8</v>
-      </c>
       <c r="F874">
         <v>2</v>
       </c>
@@ -48096,9 +48051,6 @@
       <c r="D1057" t="s">
         <v>262</v>
       </c>
-      <c r="E1057">
-        <v>8</v>
-      </c>
       <c r="F1057">
         <v>5</v>
       </c>
@@ -49460,9 +49412,6 @@
       <c r="D1088" t="s">
         <v>148</v>
       </c>
-      <c r="E1088">
-        <v>8</v>
-      </c>
       <c r="F1088">
         <v>3</v>
       </c>
@@ -53464,9 +53413,6 @@
       <c r="D1179" t="s">
         <v>136</v>
       </c>
-      <c r="E1179">
-        <v>8</v>
-      </c>
       <c r="F1179">
         <v>3</v>
       </c>
@@ -53508,9 +53454,6 @@
       <c r="D1180" t="s">
         <v>136</v>
       </c>
-      <c r="E1180">
-        <v>8</v>
-      </c>
       <c r="F1180">
         <v>3</v>
       </c>
@@ -53992,9 +53935,6 @@
       <c r="D1191" t="s">
         <v>275</v>
       </c>
-      <c r="E1191">
-        <v>8</v>
-      </c>
       <c r="F1191">
         <v>3</v>
       </c>
@@ -54740,9 +54680,6 @@
       <c r="D1208" t="s">
         <v>136</v>
       </c>
-      <c r="E1208">
-        <v>8</v>
-      </c>
       <c r="F1208">
         <v>3</v>
       </c>
@@ -55708,9 +55645,6 @@
       <c r="D1230" t="s">
         <v>136</v>
       </c>
-      <c r="E1230">
-        <v>8</v>
-      </c>
       <c r="F1230">
         <v>3</v>
       </c>
@@ -55751,9 +55685,6 @@
       </c>
       <c r="D1231" t="s">
         <v>136</v>
-      </c>
-      <c r="E1231">
-        <v>8</v>
       </c>
       <c r="F1231">
         <v>30</v>
